--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.034069333333333</v>
+        <v>3.537653</v>
       </c>
       <c r="H2">
-        <v>3.102208</v>
+        <v>10.612959</v>
       </c>
       <c r="I2">
-        <v>0.1105855382564839</v>
+        <v>0.277393541355334</v>
       </c>
       <c r="J2">
-        <v>0.1105855382564838</v>
+        <v>0.277393541355334</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N2">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O2">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P2">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q2">
-        <v>77.44701118537955</v>
+        <v>0.3479199180263334</v>
       </c>
       <c r="R2">
-        <v>697.023100668416</v>
+        <v>3.131279262237</v>
       </c>
       <c r="S2">
-        <v>0.07365686157058299</v>
+        <v>0.07818520594707389</v>
       </c>
       <c r="T2">
-        <v>0.07365686157058297</v>
+        <v>0.0781852059470739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>23</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3.537653</v>
+      </c>
+      <c r="H3">
+        <v>10.612959</v>
+      </c>
+      <c r="I3">
+        <v>0.277393541355334</v>
+      </c>
+      <c r="J3">
+        <v>0.277393541355334</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>1.034069333333333</v>
-      </c>
-      <c r="H3">
-        <v>3.102208</v>
-      </c>
-      <c r="I3">
-        <v>0.1105855382564839</v>
-      </c>
-      <c r="J3">
-        <v>0.1105855382564838</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N3">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O3">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P3">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q3">
-        <v>38.82890983094044</v>
+        <v>0.8864662679576668</v>
       </c>
       <c r="R3">
-        <v>349.4601884784639</v>
+        <v>7.978196411619</v>
       </c>
       <c r="S3">
-        <v>0.03692867668590086</v>
+        <v>0.1992083354082601</v>
       </c>
       <c r="T3">
-        <v>0.03692867668590086</v>
+        <v>0.1992083354082601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>16.179251</v>
       </c>
       <c r="I4">
-        <v>0.5767476521309193</v>
+        <v>0.422881095777985</v>
       </c>
       <c r="J4">
-        <v>0.5767476521309193</v>
+        <v>0.422881095777985</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N4">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O4">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P4">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q4">
-        <v>403.9170272167641</v>
+        <v>0.5303971947547778</v>
       </c>
       <c r="R4">
-        <v>3635.253244950877</v>
+        <v>4.773574752793</v>
       </c>
       <c r="S4">
-        <v>0.3841498865397537</v>
+        <v>0.1191918362734089</v>
       </c>
       <c r="T4">
-        <v>0.3841498865397538</v>
+        <v>0.1191918362734089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>16.179251</v>
       </c>
       <c r="I5">
-        <v>0.5767476521309193</v>
+        <v>0.422881095777985</v>
       </c>
       <c r="J5">
-        <v>0.5767476521309193</v>
+        <v>0.422881095777985</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N5">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O5">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P5">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q5">
-        <v>202.5082387161509</v>
+        <v>1.351400702887889</v>
       </c>
       <c r="R5">
-        <v>1822.574148445358</v>
+        <v>12.162606325991</v>
       </c>
       <c r="S5">
-        <v>0.1925977655911655</v>
+        <v>0.3036892595045761</v>
       </c>
       <c r="T5">
-        <v>0.1925977655911655</v>
+        <v>0.3036892595045762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.910398</v>
+        <v>3.797319666666667</v>
       </c>
       <c r="H6">
-        <v>8.731194</v>
+        <v>11.391959</v>
       </c>
       <c r="I6">
-        <v>0.311244052014495</v>
+        <v>0.2977544575442879</v>
       </c>
       <c r="J6">
-        <v>0.311244052014495</v>
+        <v>0.2977544575442879</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N6">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O6">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P6">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q6">
-        <v>217.9753515495154</v>
+        <v>0.3734575288041111</v>
       </c>
       <c r="R6">
-        <v>1961.778163945638</v>
+        <v>3.361117759237</v>
       </c>
       <c r="S6">
-        <v>0.207307939314161</v>
+        <v>0.08392406496205457</v>
       </c>
       <c r="T6">
-        <v>0.207307939314161</v>
+        <v>0.08392406496205458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.910398</v>
+        <v>3.797319666666667</v>
       </c>
       <c r="H7">
-        <v>8.731194</v>
+        <v>11.391959</v>
       </c>
       <c r="I7">
-        <v>0.311244052014495</v>
+        <v>0.2977544575442879</v>
       </c>
       <c r="J7">
-        <v>0.311244052014495</v>
+        <v>0.2977544575442879</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N7">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O7">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P7">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q7">
-        <v>109.2843370084947</v>
+        <v>0.9515336278465556</v>
       </c>
       <c r="R7">
-        <v>983.5590330764519</v>
+        <v>8.563802650618999</v>
       </c>
       <c r="S7">
-        <v>0.1039361127003339</v>
+        <v>0.2138303925822334</v>
       </c>
       <c r="T7">
-        <v>0.1039361127003339</v>
+        <v>0.2138303925822334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.013304</v>
+        <v>0.02513533333333333</v>
       </c>
       <c r="H8">
-        <v>0.039912</v>
+        <v>0.075406</v>
       </c>
       <c r="I8">
-        <v>0.001422757598101992</v>
+        <v>0.001970905322393153</v>
       </c>
       <c r="J8">
-        <v>0.001422757598101992</v>
+        <v>0.001970905322393153</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>74.89537566666667</v>
+        <v>0.09834766666666667</v>
       </c>
       <c r="N8">
-        <v>224.686127</v>
+        <v>0.295043</v>
       </c>
       <c r="O8">
-        <v>0.6660623326691122</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="P8">
-        <v>0.6660623326691123</v>
+        <v>0.2818566198948398</v>
       </c>
       <c r="Q8">
-        <v>0.9964080778693335</v>
+        <v>0.002472001384222222</v>
       </c>
       <c r="R8">
-        <v>8.967672700824</v>
+        <v>0.022248012458</v>
       </c>
       <c r="S8">
-        <v>0.000947645244614516</v>
+        <v>0.0005555127123024836</v>
       </c>
       <c r="T8">
-        <v>0.000947645244614516</v>
+        <v>0.0005555127123024837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.013304</v>
+        <v>0.02513533333333333</v>
       </c>
       <c r="H9">
-        <v>0.039912</v>
+        <v>0.075406</v>
       </c>
       <c r="I9">
-        <v>0.001422757598101992</v>
+        <v>0.001970905322393153</v>
       </c>
       <c r="J9">
-        <v>0.001422757598101992</v>
+        <v>0.001970905322393153</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>37.54961933333333</v>
+        <v>0.2505803333333333</v>
       </c>
       <c r="N9">
-        <v>112.648858</v>
+        <v>0.751741</v>
       </c>
       <c r="O9">
-        <v>0.3339376673308877</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="P9">
-        <v>0.3339376673308878</v>
+        <v>0.7181433801051602</v>
       </c>
       <c r="Q9">
-        <v>0.4995601356106667</v>
+        <v>0.006298420205111111</v>
       </c>
       <c r="R9">
-        <v>4.496041220496</v>
+        <v>0.056685781846</v>
       </c>
       <c r="S9">
-        <v>0.0004751123534874758</v>
+        <v>0.001415392610090669</v>
       </c>
       <c r="T9">
-        <v>0.0004751123534874758</v>
+        <v>0.001415392610090669</v>
       </c>
     </row>
   </sheetData>
